--- a/biology/Neurosciences/Neuroscience_évolutionniste/Neuroscience_évolutionniste.xlsx
+++ b/biology/Neurosciences/Neuroscience_évolutionniste/Neuroscience_évolutionniste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Neuroscience_%C3%A9volutionniste</t>
+          <t>Neuroscience_évolutionniste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La neuroscience évolutionniste est un champ de recherche scientifique interdisciplinaire qui étudie l'évolution des systèmes nerveux. 
 Les neuroscientifiques évolutionnistes tentent de comprendre l'évolution et l'histoire naturelle de la structure et de la fonction du système nerveux.
